--- a/uploads/Workbook1.xlsx
+++ b/uploads/Workbook1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liyongji/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="1913">
   <si>
     <t>侯健邦</t>
   </si>
@@ -5848,6 +5848,9 @@
   </si>
   <si>
     <t>入司日期</t>
+  </si>
+  <si>
+    <t>身份证</t>
   </si>
 </sst>
 </file>
@@ -6363,7 +6366,7 @@
   <dimension ref="A1:Y907"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6440,6 +6443,9 @@
       </c>
       <c r="X1" t="s">
         <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1912</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
